--- a/glyph-info.xlsx
+++ b/glyph-info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11360" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="3040" yWindow="0" windowWidth="11360" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -733,10 +733,10 @@
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C82" sqref="C82"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
